--- a/schedule/ВИБТ12.xlsx
+++ b/schedule/ВИБТ12.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,15 +19,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>la</t>
-  </si>
-  <si>
-    <t>dasd</t>
-  </si>
-  <si>
-    <t>asdasd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Языки программирования</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>История</t>
+  </si>
+  <si>
+    <t>Дискретная математика</t>
+  </si>
+  <si>
+    <t>Физ-ра</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
+  <si>
+    <t>Английский</t>
+  </si>
+  <si>
+    <t>Антикоррупционное поведение</t>
+  </si>
+  <si>
+    <t>Программирование</t>
   </si>
 </sst>
 </file>
@@ -345,48 +378,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
